--- a/config/config_awaken_b0.xlsx
+++ b/config/config_awaken_b0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SLETIZIA\OneDrive - NREL\Desktop\PostDoc\Technical\LiDAR\LIDARGO\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2486AE12-B7F7-406B-BA03-8070D367260F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8E4211-89FF-4DF3-9D15-6F4CC8018742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>sc1\.lidar\.z01\.a0\.\d{8}\.\d{6}\.user1.nc</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
   </si>
 </sst>
 </file>
@@ -295,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -315,37 +321,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -358,6 +343,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -665,16 +653,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AA35"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K9" sqref="K9"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1:S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="55.33203125" style="8" bestFit="1" customWidth="1"/>
@@ -689,37 +677,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="22" t="s">
         <v>55</v>
       </c>
       <c r="M1" s="1"/>
@@ -727,7 +715,7 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -751,7 +739,7 @@
       <c r="H2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -767,7 +755,7 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -791,7 +779,7 @@
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -807,598 +795,598 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="23">
+        <v>20230101</v>
+      </c>
+      <c r="C4" s="23">
+        <v>20230101</v>
+      </c>
+      <c r="D4" s="23">
+        <v>20230101</v>
+      </c>
+      <c r="E4" s="23">
+        <v>20230101</v>
+      </c>
+      <c r="F4" s="23">
+        <v>20230101</v>
+      </c>
+      <c r="G4" s="23">
+        <v>20230101</v>
+      </c>
+      <c r="H4" s="23">
+        <v>20230101</v>
+      </c>
+      <c r="I4" s="23">
+        <v>20230101</v>
+      </c>
+      <c r="J4" s="23">
+        <v>20230101</v>
+      </c>
+      <c r="K4" s="23">
+        <v>20230101</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="23">
+        <v>20240514</v>
+      </c>
+      <c r="C5" s="23">
+        <v>20240514</v>
+      </c>
+      <c r="D5" s="23">
+        <v>20240514</v>
+      </c>
+      <c r="E5" s="23">
+        <v>20240514</v>
+      </c>
+      <c r="F5" s="23">
+        <v>20240514</v>
+      </c>
+      <c r="G5" s="23">
+        <v>20240514</v>
+      </c>
+      <c r="H5" s="23">
+        <v>20240514</v>
+      </c>
+      <c r="I5" s="23">
+        <v>20240514</v>
+      </c>
+      <c r="J5" s="23">
+        <v>20240514</v>
+      </c>
+      <c r="K5" s="23">
+        <v>20240514</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B6" s="2">
         <v>-90</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C6" s="2">
         <v>-90</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D6" s="2">
         <v>-90</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E6" s="2">
         <v>-90</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F6" s="2">
         <v>-90</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G6" s="2">
         <v>-90</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H6" s="2">
         <v>-90</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I6" s="2">
         <v>-90</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B7" s="10">
         <v>-0.1</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C7" s="10">
         <v>-0.1</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D7" s="10">
         <v>-0.1</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E7" s="10">
         <v>-0.1</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F7" s="10">
         <v>-0.1</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G7" s="10">
         <v>-0.1</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H7" s="10">
         <v>-0.1</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I7" s="10">
         <v>-0.1</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J7" s="10">
         <v>-3</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K7" s="10">
         <v>-0.1</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B8" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C8" s="10">
         <v>3</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D8" s="10">
         <v>2</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E8" s="10">
         <v>2</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F8" s="10">
         <v>2</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G8" s="10">
         <v>11</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H8" s="10">
         <v>11</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I8" s="10">
         <v>2</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J8" s="10">
         <v>3</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K8" s="10">
         <v>2</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="1:16" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B9" s="10">
         <v>-0.1</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C9" s="10">
         <v>-0.1</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D9" s="10">
         <v>-0.1</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E9" s="10">
         <v>-0.1</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F9" s="10">
         <v>-0.1</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G9" s="10">
         <v>-0.1</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H9" s="10">
         <v>-0.1</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I9" s="10">
         <v>-0.1</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J9" s="10">
         <v>-0.1</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K9" s="10">
         <v>-0.1</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-    </row>
-    <row r="8" spans="1:16" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B10" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="10">
         <v>3</v>
       </c>
-      <c r="D8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="D10" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="10">
         <v>2</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G10" s="10">
         <v>3</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H10" s="10">
         <v>3</v>
       </c>
-      <c r="I8" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="I10" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="10">
         <v>2</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K10" s="10">
         <v>3</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-    </row>
-    <row r="9" spans="1:16" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B11" s="3">
         <v>0.25</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C11" s="3">
         <v>0.25</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D11" s="3">
         <v>0.25</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E11" s="3">
         <v>0.25</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F11" s="3">
         <v>0.25</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G11" s="3">
         <v>0.25</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H11" s="3">
         <v>0.25</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I11" s="3">
         <v>0.25</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J11" s="3">
         <v>0.25</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K11" s="3">
         <v>0.25</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="B12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B13" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E13" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F13" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G13" s="4">
         <v>2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H13" s="4">
         <v>2</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I13" s="4">
         <v>2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J13" s="4">
         <v>2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K13" s="4">
         <v>2</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B14" s="12">
         <v>200</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C14" s="12">
         <v>200</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D14" s="12">
         <v>200</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E14" s="12">
         <v>200</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F14" s="12">
         <v>200</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G14" s="12">
         <v>500</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H14" s="12">
         <v>500</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I14" s="12">
         <v>500</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J14" s="12">
+        <v>500</v>
+      </c>
+      <c r="K14" s="12">
+        <v>500</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="12">
         <v>200</v>
       </c>
-      <c r="K12" s="17">
+      <c r="C15" s="12">
         <v>200</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-    </row>
-    <row r="13" spans="1:16" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="17">
+      <c r="D15" s="12">
         <v>200</v>
       </c>
-      <c r="C13" s="17">
+      <c r="E15" s="12">
         <v>200</v>
       </c>
-      <c r="D13" s="17">
+      <c r="F15" s="12">
         <v>200</v>
       </c>
-      <c r="E13" s="17">
-        <v>200</v>
-      </c>
-      <c r="F13" s="17">
-        <v>200</v>
-      </c>
-      <c r="G13" s="17">
+      <c r="G15" s="12">
         <v>500</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H15" s="12">
         <v>500</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I15" s="12">
         <v>500</v>
       </c>
-      <c r="J13" s="17">
-        <v>200</v>
-      </c>
-      <c r="K13" s="17">
-        <v>200</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-    </row>
-    <row r="14" spans="1:16" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="J15" s="12">
+        <v>500</v>
+      </c>
+      <c r="K15" s="12">
+        <v>500</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="17">
-        <v>50</v>
-      </c>
-      <c r="C14" s="17">
-        <v>50</v>
-      </c>
-      <c r="D14" s="17">
-        <v>50</v>
-      </c>
-      <c r="E14" s="17">
-        <v>50</v>
-      </c>
-      <c r="F14" s="17">
-        <v>50</v>
-      </c>
-      <c r="G14" s="17">
+      <c r="B16" s="12">
+        <v>50</v>
+      </c>
+      <c r="C16" s="12">
+        <v>50</v>
+      </c>
+      <c r="D16" s="12">
+        <v>50</v>
+      </c>
+      <c r="E16" s="12">
+        <v>50</v>
+      </c>
+      <c r="F16" s="12">
+        <v>50</v>
+      </c>
+      <c r="G16" s="12">
         <v>100</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H16" s="12">
         <v>100</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I16" s="12">
         <v>100</v>
       </c>
-      <c r="J14" s="17">
-        <v>50</v>
-      </c>
-      <c r="K14" s="17">
-        <v>50</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-    </row>
-    <row r="15" spans="1:16" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="J16" s="12">
+        <v>100</v>
+      </c>
+      <c r="K16" s="12">
+        <v>100</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="1:27" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B17" s="12">
         <v>600</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C17" s="12">
         <v>600</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D17" s="12">
         <v>600</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E17" s="12">
         <v>600</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F17" s="12">
         <v>600</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G17" s="12">
         <v>600</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H17" s="12">
         <v>600</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I17" s="12">
         <v>600</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J17" s="12">
         <v>600</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K17" s="12">
         <v>600</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-    </row>
-    <row r="16" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B18" s="2">
         <v>96</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C18" s="2">
         <v>96</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D18" s="2">
         <v>96</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E18" s="2">
         <v>96</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F18" s="2">
         <v>96</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G18" s="2">
         <v>96</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H18" s="2">
         <v>96</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I18" s="2">
         <v>96</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J18" s="2">
         <v>96</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K18" s="2">
         <v>96</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C17" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F17" s="2">
-        <v>5000</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5000</v>
-      </c>
-      <c r="H17" s="2">
-        <v>5000</v>
-      </c>
-      <c r="I17" s="10">
-        <v>5000</v>
-      </c>
-      <c r="J17" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K17" s="2">
-        <v>5000</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2">
-        <v>-25</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-25</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-25</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-25</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-25</v>
-      </c>
-      <c r="G18" s="2">
-        <v>-25</v>
-      </c>
-      <c r="H18" s="2">
-        <v>-25</v>
-      </c>
-      <c r="I18" s="10">
-        <v>-25</v>
-      </c>
-      <c r="J18" s="2">
-        <v>-25</v>
-      </c>
-      <c r="K18" s="2">
-        <v>-25</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1407,38 +1395,38 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>46</v>
+      <c r="A19" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="C19" s="2">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="D19" s="2">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="E19" s="2">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="F19" s="2">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="G19" s="2">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="H19" s="2">
-        <v>50</v>
-      </c>
-      <c r="I19" s="10">
-        <v>50</v>
+        <v>5000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5000</v>
       </c>
       <c r="J19" s="2">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="K19" s="2">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1447,89 +1435,78 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="A20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-25</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-25</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-25</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-25</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-25</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-25</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-25</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-25</v>
+      </c>
+      <c r="J20" s="2">
+        <v>-25</v>
+      </c>
+      <c r="K20" s="2">
+        <v>-25</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>27</v>
+      <c r="A21" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="B21" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G21" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H21" s="2">
-        <v>30</v>
-      </c>
-      <c r="I21" s="10">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="I21" s="2">
+        <v>50</v>
       </c>
       <c r="J21" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K21" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1538,78 +1515,89 @@
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2">
-        <v>20</v>
-      </c>
-      <c r="E22" s="2">
-        <v>20</v>
-      </c>
-      <c r="F22" s="2">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2">
-        <v>20</v>
-      </c>
-      <c r="H22" s="2">
-        <v>20</v>
-      </c>
-      <c r="I22" s="10">
-        <v>20</v>
-      </c>
-      <c r="J22" s="2">
-        <v>20</v>
-      </c>
-      <c r="K22" s="2">
-        <v>20</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="A22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>29</v>
+      <c r="A23" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F23" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="10">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="I23" s="2">
+        <v>30</v>
       </c>
       <c r="J23" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1618,38 +1606,38 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>30</v>
+      <c r="A24" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" s="10">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="I24" s="2">
+        <v>20</v>
       </c>
       <c r="J24" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1657,39 +1645,39 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="2">
-        <v>30</v>
-      </c>
-      <c r="C25" s="2">
-        <v>30</v>
-      </c>
-      <c r="D25" s="2">
-        <v>30</v>
-      </c>
-      <c r="E25" s="2">
-        <v>30</v>
-      </c>
-      <c r="F25" s="2">
-        <v>30</v>
-      </c>
-      <c r="G25" s="2">
-        <v>30</v>
-      </c>
-      <c r="H25" s="2">
-        <v>30</v>
-      </c>
-      <c r="I25" s="10">
-        <v>30</v>
-      </c>
-      <c r="J25" s="2">
-        <v>30</v>
-      </c>
-      <c r="K25" s="2">
-        <v>30</v>
+    <row r="25" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1697,279 +1685,279 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2">
+        <v>30</v>
+      </c>
+      <c r="F27" s="2">
+        <v>30</v>
+      </c>
+      <c r="G27" s="2">
+        <v>30</v>
+      </c>
+      <c r="H27" s="2">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2">
+        <v>30</v>
+      </c>
+      <c r="J27" s="2">
+        <v>100</v>
+      </c>
+      <c r="K27" s="2">
+        <v>30</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B28" s="3">
         <v>0.5</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C28" s="3">
         <v>0.5</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D28" s="3">
         <v>0.5</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E28" s="3">
         <v>0.5</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F28" s="3">
         <v>0.5</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G28" s="3">
         <v>0.5</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H28" s="3">
         <v>0.5</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I28" s="3">
         <v>0.5</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J28" s="3">
         <v>0.5</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K28" s="3">
         <v>0.5</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:27" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B29" s="12">
         <v>25</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C29" s="12">
         <v>25</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D29" s="12">
         <v>25</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E29" s="12">
         <v>25</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F29" s="12">
         <v>25</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G29" s="12">
         <v>25</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H29" s="12">
         <v>25</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I29" s="12">
         <v>25</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J29" s="12">
         <v>25</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K29" s="12">
         <v>25</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-    </row>
-    <row r="28" spans="1:27" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+    </row>
+    <row r="30" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="17">
-        <v>1</v>
-      </c>
-      <c r="C28" s="17">
-        <v>1</v>
-      </c>
-      <c r="D28" s="17">
-        <v>1</v>
-      </c>
-      <c r="E28" s="17">
-        <v>1</v>
-      </c>
-      <c r="F28" s="17">
-        <v>1</v>
-      </c>
-      <c r="G28" s="17">
-        <v>1</v>
-      </c>
-      <c r="H28" s="17">
-        <v>1</v>
-      </c>
-      <c r="I28" s="18">
-        <v>1</v>
-      </c>
-      <c r="J28" s="17">
-        <v>1</v>
-      </c>
-      <c r="K28" s="17">
-        <v>1</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-    </row>
-    <row r="29" spans="1:27" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
+      <c r="B30" s="12">
+        <v>1</v>
+      </c>
+      <c r="C30" s="12">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12">
+        <v>1</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1</v>
+      </c>
+      <c r="I30" s="12">
+        <v>1</v>
+      </c>
+      <c r="J30" s="12">
+        <v>1</v>
+      </c>
+      <c r="K30" s="12">
+        <v>1</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+    </row>
+    <row r="31" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B31" s="12">
         <v>99</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C31" s="12">
         <v>99</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D31" s="12">
         <v>99</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E31" s="12">
         <v>99</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F31" s="12">
         <v>99</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G31" s="12">
         <v>99</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H31" s="12">
         <v>99</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I31" s="12">
         <v>99</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J31" s="12">
         <v>99</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K31" s="12">
         <v>99</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-    </row>
-    <row r="30" spans="1:27" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="1:27" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B32" s="14">
         <v>1E-4</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C32" s="14">
         <v>1E-4</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D32" s="14">
         <v>1E-4</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E32" s="14">
         <v>1E-4</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F32" s="14">
         <v>1E-4</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G32" s="14">
         <v>1E-4</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H32" s="14">
         <v>1E-4</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I32" s="14">
         <v>1E-4</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J32" s="14">
         <v>1E-4</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K32" s="14">
         <v>1E-4</v>
-      </c>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-    </row>
-    <row r="31" spans="1:27" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="D31" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="E31" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="F31" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="G31" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="H31" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="I31" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="J31" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="K31" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-    </row>
-    <row r="32" spans="1:27" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="C32" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D32" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="E32" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="F32" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="G32" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="H32" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="I32" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="J32" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="K32" s="14">
-        <v>0.25</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
@@ -1977,125 +1965,205 @@
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
     </row>
-    <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
+    <row r="33" spans="1:16" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="C33" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="I33" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="J33" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="K33" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+    </row>
+    <row r="34" spans="1:16" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+    </row>
+    <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B37" s="2">
         <v>-90</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C37" s="2">
         <v>-90</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D37" s="2">
         <v>-90</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E37" s="2">
         <v>-90</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F37" s="2">
         <v>-90</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G37" s="2">
         <v>-90</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H37" s="2">
         <v>-90</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I37" s="2">
         <v>-90</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J37" s="2">
         <v>0</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K37" s="2">
         <v>0</v>
       </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
